--- a/Figure3/Fig3_2/Numsignificance.xlsx
+++ b/Figure3/Fig3_2/Numsignificance.xlsx
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.1156706375262185</v>
+        <v>0.0976574457242684</v>
       </c>
       <c r="D11">
-        <v>0.04943116210530729</v>
+        <v>0.01254839080601378</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.2699293692972999</v>
+        <v>0.2670547537969857</v>
       </c>
       <c r="D12">
-        <v>0.746884965380662</v>
+        <v>0.7088318345916557</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.6213764103315094</v>
+        <v>0.5291787601167162</v>
       </c>
       <c r="D13">
-        <v>0.2152407443240799</v>
+        <v>0.3345228474819849</v>
       </c>
     </row>
   </sheetData>
